--- a/email.xlsx
+++ b/email.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="updates" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>newsTitle</t>
   </si>
@@ -38,6 +38,83 @@
   </si>
   <si>
     <t>ttt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>suggest</t>
+  </si>
+  <si>
+    <t>Versions</t>
+  </si>
+  <si>
+    <t>updatesTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVEs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVEnumber:CVEurl,2:asdf,3:123123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -45,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +154,19 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -100,7 +190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -108,6 +198,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -470,15 +569,189 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="3"/>
+    <col min="2" max="2" width="43.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="3" customWidth="1"/>
+    <col min="4" max="5" width="12.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="15.75" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="5" customFormat="1">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/email.xlsx
+++ b/email.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>newsTitle</t>
   </si>
@@ -86,35 +86,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVEnumber:CVEurl,2:asdf,3:123123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02:222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVEnumber@CVEurl,2@asdf,3@123123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02@222</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,10 +557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="18.75"/>
@@ -610,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5">
         <v>3</v>
@@ -627,7 +615,7 @@
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>20</v>
@@ -647,7 +635,7 @@
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>20</v>
@@ -670,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -682,66 +670,26 @@
         <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
     </row>

--- a/email.xlsx
+++ b/email.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="1" r:id="rId1"/>
     <sheet name="updates" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>newsTitle</t>
   </si>
@@ -29,18 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ttt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>content</t>
   </si>
   <si>
@@ -62,55 +50,165 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
+    <t>Google用DeepMind人工智慧幫資料中心節省40%的冷卻用電</t>
+  </si>
+  <si>
+    <t>http://www.ithome.com.tw/news/107267</t>
+  </si>
+  <si>
+    <t>Google DeepMind研究人員根據資料中心內不同的操作場景與參數訓練神經網路系統，以更有效理解資料中心動態及最佳化運作框架，改善資料中心的電力使用效益，將優化的框架部署在資料中心，經測試減少40%冷卻系統用電，讓PUE降低15%。</t>
+  </si>
+  <si>
+    <t>http://www.ithome.com.tw/news/107175</t>
+  </si>
+  <si>
+    <t>推動性別平等，Unicode協會通過11種代表職場男女的表情符號</t>
+  </si>
+  <si>
+    <t>Unicode協會上周通過Google在今年5月提出的11種可同時代表職場男性及女性的表情符號，將原本女性表情符號中的刻板印象，從原來的剪頭髮、公主或新娘子一舉擴大到11種，包括老師、工程師、研究人員、廚師、農夫、博士、醫生等等，這些新的表情符號預計年底前開放部署。</t>
+  </si>
+  <si>
+    <t>aa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b@1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVEnumber@CVEurl,2@asdf,3@123123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02@222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Drupal RESTWS Module 7.x - Remote PHP Code Execution (Metasploit)@https://www.exploit-db.com/exploits/40130/</t>
+  </si>
+  <si>
+    <t>Axis Communications MPQT/PACS 5.20.x - Server Side Include (SSI) Daemon Remote Format String Exploit@https://www.exploit-db.com/exploits/40125/</t>
+  </si>
+  <si>
+    <t>OpenSSHD &amp;lt;= 7.2p2 - User Enumeration@https://www.exploit-db.com/exploits/40113/</t>
+  </si>
+  <si>
+    <t>Meinberg NTP Time Server ELX800/GPS M4x V5.30p - Remote Command Execution and Escalate Privileges@https://www.exploit-db.com/exploits/40120/</t>
+  </si>
+  <si>
+    <t>Django CMS 3.3.0 - (Editor Snippet) Persistent XSS@https://www.exploit-db.com/exploits/40129/</t>
+  </si>
+  <si>
+    <t>NewsP Free News Script 1.4.7 - User Credentials Disclosure@https://www.exploit-db.com/exploits/40126/</t>
+  </si>
+  <si>
+    <t>newsp.eu PHP Calendar Script 1.0 - User Credentials Disclosure@https://www.exploit-db.com/exploits/40127/</t>
+  </si>
+  <si>
+    <t>Clear Voyager Hotspot IMW-C910W - Arbitrary File Disclosure@https://www.exploit-db.com/exploits/40112/</t>
+  </si>
+  <si>
+    <t>Web Servers CGI Multiple Vulnerabilities@https://www.hkcert.org/my_url/en/alert/16071901</t>
+  </si>
+  <si>
+    <t>PHP Multiple Vulnerabilities@https://www.hkcert.org/my_url/en/alert/16071801</t>
+  </si>
+  <si>
+    <t>Cisco Products Multiple Vulnerabilities@https://www.hkcert.org/my_url/en/alert/16071501</t>
+  </si>
+  <si>
+    <t>Drupal Contributed Modules Arbitrary PHP Code Execution Vulnerabilities@https://www.hkcert.org/my_url/en/alert/16071401</t>
+  </si>
+  <si>
+    <t>Oracle Database Server JDBC远程安全漏洞@http://www.nsfocus.net/vulndb/34244</t>
+  </si>
+  <si>
+    <t>Oracle Database Server OJVM远程安全漏洞@http://www.nsfocus.net/vulndb/34243</t>
+  </si>
+  <si>
+    <t>Oracle Database Server Portable Clusterware远程安全漏洞@http://www.nsfocus.net/vulndb/34242</t>
+  </si>
+  <si>
+    <t>Oracle Database Server DB Sharding本地安全漏洞@http://www.nsfocus.net/vulndb/34241</t>
+  </si>
+  <si>
+    <t>Oracle Database Server RDBMS远程安全漏洞@http://www.nsfocus.net/vulndb/34240</t>
+  </si>
+  <si>
+    <t>Oracle Database Server Application Express远程安全漏洞@http://www.nsfocus.net/vulndb/34239</t>
+  </si>
+  <si>
+    <t>Oracle Database Server Application Express远程安全漏洞@http://www.nsfocus.net/vulndb/34238</t>
+  </si>
+  <si>
+    <t>Oracle Database Server Data Pump Import本地安全漏洞@http://www.nsfocus.net/vulndb/34237</t>
+  </si>
+  <si>
+    <t>Oracle Database Server Database Vault本地安全漏洞@http://www.nsfocus.net/vulndb/34236</t>
+  </si>
+  <si>
+    <t>Misys FusionCapital Opics Plus SQL注入漏洞@http://www.nsfocus.net/vulndb/34235</t>
+  </si>
+  <si>
+    <t>Misys FusionCapital Opics Plus 权限提升漏洞@http://www.nsfocus.net/vulndb/34234</t>
+  </si>
+  <si>
+    <t>Misys FusionCapital Opics Plus 信息泄露漏洞@http://www.nsfocus.net/vulndb/34233</t>
+  </si>
+  <si>
+    <t>ISC BIND 拒绝服务漏洞@http://www.nsfocus.net/vulndb/34232</t>
+  </si>
+  <si>
+    <t>HarfBuzz hb-ot-layout-gpos-table.hh拒绝服务漏洞@http://www.nsfocus.net/vulndb/34231</t>
+  </si>
+  <si>
+    <t>Objective Systems ASN1C堆缓冲区溢出漏洞@http://www.nsfocus.net/vulndb/34230</t>
+  </si>
+  <si>
+    <t>IBM Traveler拒绝服务漏洞@http://www.nsfocus.net/vulndb/34226</t>
+  </si>
+  <si>
+    <t>Cisco WebEx Meetings Server 跨站请求伪造漏洞@http://www.nsfocus.net/vulndb/34156</t>
+  </si>
+  <si>
+    <t>Cisco IOS/IOS XE Software BGP消息拒绝服务漏洞@http://www.nsfocus.net/vulndb/34155</t>
+  </si>
+  <si>
+    <t>GraphicsMagick DecodeImage函数拒绝服务漏洞@http://www.nsfocus.net/vulndb/34106</t>
+  </si>
+  <si>
+    <t>Adobe Reader/Acrobat释放后重利用漏洞@http://www.nsfocus.net/vulndb/34105</t>
+  </si>
+  <si>
+    <t>Adobe Reader/Acrobat内存破坏漏洞@http://www.nsfocus.net/vulndb/34104</t>
+  </si>
+  <si>
+    <t>libvirt 身份验证绕过漏洞@http://www.nsfocus.net/vulndb/34107</t>
+  </si>
+  <si>
+    <t>Apache QPID 反序列化安全功能绕过漏洞@http://www.nsfocus.net/vulndb/34099</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Print Spooler权限提升漏洞(MS16-087)@http://www.nsfocus.net/vulndb/34082</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Win32k权限提升漏洞(MS16-090)@http://www.nsfocus.net/vulndb/34081</t>
+  </si>
+  <si>
+    <t>Microsoft .NET Framework信息泄露漏洞(MS16-091)@http://www.nsfocus.net/vulndb/34080</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Win32k权限提升漏洞(MS16-090)@http://www.nsfocus.net/vulndb/34079</t>
+  </si>
+  <si>
+    <t>Microsoft Windows 文件系统安全功能绕过漏洞(MS16-092)@http://www.nsfocus.net/vulndb/34078</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Win32k权限提升漏洞(MS16-090)@http://www.nsfocus.net/vulndb/34077</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Win32k权限提升漏洞(MS16-090)@http://www.nsfocus.net/vulndb/34076</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Win32k信息泄露漏洞(MS16-090)@http://www.nsfocus.net/vulndb/34075</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Print Spooler远程代码执行漏洞(MS16-087)@http://www.nsfocus.net/vulndb/34074</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +253,13 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -197,12 +302,20 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -281,6 +394,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -315,6 +429,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -490,21 +605,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="18.75">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,37 +630,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -556,14 +660,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.75" style="3"/>
     <col min="2" max="2" width="43.5" style="3" customWidth="1"/>
@@ -573,32 +677,32 @@
     <col min="7" max="16384" width="15.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="5" customFormat="1">
-      <c r="A2" s="5">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5">
         <v>3</v>
@@ -613,103 +717,880 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1">
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5</v>
+      </c>
+      <c r="F20" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5</v>
+      </c>
+      <c r="F24" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5">
+        <v>5</v>
+      </c>
+      <c r="F25" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5">
+        <v>5</v>
+      </c>
+      <c r="F26" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5">
+        <v>5</v>
+      </c>
+      <c r="F27" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4</v>
+      </c>
+      <c r="E28" s="5">
+        <v>5</v>
+      </c>
+      <c r="F28" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4</v>
+      </c>
+      <c r="E29" s="5">
+        <v>5</v>
+      </c>
+      <c r="F29" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4</v>
+      </c>
+      <c r="E30" s="5">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3</v>
+      </c>
+      <c r="D31" s="5">
+        <v>4</v>
+      </c>
+      <c r="E31" s="5">
+        <v>5</v>
+      </c>
+      <c r="F31" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4</v>
+      </c>
+      <c r="E32" s="5">
+        <v>5</v>
+      </c>
+      <c r="F32" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="5">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4</v>
+      </c>
+      <c r="E33" s="5">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4</v>
+      </c>
+      <c r="E34" s="5">
+        <v>5</v>
+      </c>
+      <c r="F34" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5">
+        <v>4</v>
+      </c>
+      <c r="E35" s="5">
+        <v>5</v>
+      </c>
+      <c r="F35" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4</v>
+      </c>
+      <c r="E36" s="5">
+        <v>5</v>
+      </c>
+      <c r="F36" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="5">
+        <v>3</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4</v>
+      </c>
+      <c r="E37" s="5">
+        <v>5</v>
+      </c>
+      <c r="F37" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4</v>
+      </c>
+      <c r="E38" s="5">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="5">
+        <v>3</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4</v>
+      </c>
+      <c r="E39" s="5">
+        <v>5</v>
+      </c>
+      <c r="F39" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="5">
+        <v>3</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4</v>
+      </c>
+      <c r="E40" s="5">
+        <v>5</v>
+      </c>
+      <c r="F40" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="5">
+        <v>3</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4</v>
+      </c>
+      <c r="E41" s="5">
+        <v>5</v>
+      </c>
+      <c r="F41" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="5">
+        <v>3</v>
+      </c>
+      <c r="D42" s="5">
+        <v>4</v>
+      </c>
+      <c r="E42" s="5">
+        <v>5</v>
+      </c>
+      <c r="F42" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="5">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5">
+        <v>4</v>
+      </c>
+      <c r="E43" s="5">
+        <v>5</v>
+      </c>
+      <c r="F43" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="5">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5">
+        <v>4</v>
+      </c>
+      <c r="E44" s="5">
+        <v>5</v>
+      </c>
+      <c r="F44" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="5">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5">
+        <v>4</v>
+      </c>
+      <c r="E45" s="5">
+        <v>5</v>
+      </c>
+      <c r="F45" s="5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A3" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
